--- a/biology/Botanique/Faramea_guianensis/Faramea_guianensis.xlsx
+++ b/biology/Botanique/Faramea_guianensis/Faramea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea guianensis, est une espèce de plantes dicotylédones de la famille des Rubiaceae, sous-famille des Rubioideae, originaire des régions tropicales d'Amérique du Sud.
-En Guyane, il est connu sous les noms de  petit ipéca (Créole), Ka'a yamulutu, Ka'a sala (Wayãpi), Waaduk priye (Palikur)[4].
+En Guyane, il est connu sous les noms de  petit ipéca (Créole), Ka'a yamulutu, Ka'a sala (Wayãpi), Waaduk priye (Palikur).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Descrition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Faramea guianensis :
 « Jeunes rameaux comprimés côtelés ; feuilles de 0,11-0,16 sur 0,04-0,05, à pétiole très court, elliptiques ou oblongues avec base aiguë ou en coin, coriaces, avec 10-11, paires de nervures saillantes en dessous, et unies près des bords, stipules très courtes aristées ; inflorescences en cymes entourées à la base par un grand involucre de 2 bractées ovales-orbicullaires acuminées 3-nervées et 2 intérieures plus petites, les autres bractées plus étroites ; fleurs (environ (7) sessiles, à calice cupuliforme tronqué, corolle hypocratérimorphe à tube de 9 mm. et lobes de 5, ovales aigus, style de 0,01 ; drupe ? - (Aublet). »
-— Albert Lemée, 1953.[5]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -544,11 +558,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faramea guianensis est un arbrisseau du sous-bois de la forêt ancienne, commun localement[4].
-Ses fruits sont consommés par des oiseaux[6].
-Sa classification taxonomique a été étudiée[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faramea guianensis est un arbrisseau du sous-bois de la forêt ancienne, commun localement.
+Ses fruits sont consommés par des oiseaux.
+Sa classification taxonomique a été étudiée,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faramea guianensis est endémique du Suriname[9], de Guyane et d'Amapá (Brésil)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faramea guianensis est endémique du Suriname, de Guyane et d'Amapá (Brésil).
 </t>
         </is>
       </c>
@@ -608,12 +626,14 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les racines de Faramea guianensis sont réputées vomitives selon Heckel[10].
-Chez les Wayãpi, des fulmigations de Faramea guianensis sont employée pour soigner les ulcères de leishmaniose[4],[11],[12],[13],
-tandis que les Créoles soignaient les bronchites avec une décoction des feuilles mélangée à du sirop de canne[14].
-Ses propriété contre la leishmaniose ont été confirmées[15],[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les racines de Faramea guianensis sont réputées vomitives selon Heckel.
+Chez les Wayãpi, des fulmigations de Faramea guianensis sont employée pour soigner les ulcères de leishmaniose
+tandis que les Créoles soignaient les bronchites avec une décoction des feuilles mélangée à du sirop de canne.
+Ses propriété contre la leishmaniose ont été confirmées,.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a isolé des flavanes à partir d'extraits de Faramea guianensis[17].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a isolé des flavanes à partir d'extraits de Faramea guianensis.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet en a proposé le protologue suivant :
 « EVEA Guianenſis. (TABULA 39.)
@@ -692,7 +716,7 @@
 […]
 Cet arbriſſeau eſt nommé ÉVÉ par les Galibis.
 II croît dans les grandes forêts de la Guiane. Il étoit en fleur dans le mois de Novembre. »
-— Fusée-Aublet, 1775.[18]</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
